--- a/MainTop/09.02.2025/ozon_Таня_sorted2.xlsx
+++ b/MainTop/09.02.2025/ozon_Таня_sorted2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\09.02.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A37607-D8B4-4487-B160-5B4016D6A473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5A56F6-2297-435C-80A5-29548D97E499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -962,10 +962,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q166"/>
+  <dimension ref="A1:R166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:R166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +973,7 @@
     <col min="1" max="1" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3">
-        <f>SUM(H2:Q2)-D2</f>
+        <f t="shared" ref="G2:G37" si="0">SUM(H2:Q2)-D2</f>
         <v>0</v>
       </c>
       <c r="H2" s="3">
@@ -1073,8 +1073,12 @@
       <c r="Q2" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <f>P2+Q2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1092,7 +1096,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3">
-        <f>SUM(H3:Q3)-D3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="3">
@@ -1125,8 +1129,12 @@
       <c r="Q3" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="1">P3+Q3</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1144,7 +1152,7 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
-        <f>SUM(H4:Q4)-D4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="3">
@@ -1177,8 +1185,12 @@
       <c r="Q4" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1196,7 +1208,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3">
-        <f>SUM(H5:Q5)-D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="3">
@@ -1229,8 +1241,12 @@
       <c r="Q5" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1248,7 +1264,7 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3">
-        <f>SUM(H6:Q6)-D6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="3">
@@ -1281,8 +1297,12 @@
       <c r="Q6" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1300,7 +1320,7 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3">
-        <f>SUM(H7:Q7)-D7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="3">
@@ -1333,8 +1353,12 @@
       <c r="Q7" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1352,7 +1376,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3">
-        <f>SUM(H8:Q8)-D8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="3">
@@ -1385,8 +1409,12 @@
       <c r="Q8" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1404,7 +1432,7 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
-        <f>SUM(H9:Q9)-D9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="3">
@@ -1437,8 +1465,12 @@
       <c r="Q9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1456,7 +1488,7 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3">
-        <f>SUM(H10:Q10)-D10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="3">
@@ -1489,8 +1521,12 @@
       <c r="Q10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1508,7 +1544,7 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
-        <f>SUM(H11:Q11)-D11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="3">
@@ -1541,8 +1577,12 @@
       <c r="Q11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1563,7 +1603,7 @@
         <v>340</v>
       </c>
       <c r="G12" s="3">
-        <f>SUM(H12:Q12)-D12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="3">
@@ -1596,8 +1636,12 @@
       <c r="Q12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -1614,7 +1658,7 @@
         <v>344</v>
       </c>
       <c r="G13" s="3">
-        <f>SUM(H13:Q13)-D13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="3">
@@ -1647,8 +1691,12 @@
       <c r="Q13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1665,7 +1713,7 @@
         <v>352</v>
       </c>
       <c r="G14" s="3">
-        <f>SUM(H14:Q14)-D14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="3">
@@ -1698,8 +1746,12 @@
       <c r="Q14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1716,7 +1768,7 @@
         <v>273</v>
       </c>
       <c r="G15" s="3">
-        <f>SUM(H15:Q15)-D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="3">
@@ -1749,8 +1801,12 @@
       <c r="Q15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1767,7 +1823,7 @@
         <v>1309</v>
       </c>
       <c r="G16" s="3">
-        <f>SUM(H16:Q16)-D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="3">
@@ -1800,8 +1856,12 @@
       <c r="Q16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1815,7 +1875,7 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3">
-        <f>SUM(H17:Q17)-D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="3">
@@ -1848,8 +1908,12 @@
       <c r="Q17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
@@ -1863,7 +1927,7 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3">
-        <f>SUM(H18:Q18)-D18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="3">
@@ -1896,8 +1960,12 @@
       <c r="Q18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -1911,7 +1979,7 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3">
-        <f>SUM(H19:Q19)-D19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="3">
@@ -1944,8 +2012,12 @@
       <c r="Q19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
@@ -1959,7 +2031,7 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3">
-        <f>SUM(H20:Q20)-D20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="3">
@@ -1992,8 +2064,12 @@
       <c r="Q20" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -2007,7 +2083,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3">
-        <f>SUM(H21:Q21)-D21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="3">
@@ -2040,8 +2116,12 @@
       <c r="Q21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -2055,7 +2135,7 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3">
-        <f>SUM(H22:Q22)-D22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="3">
@@ -2088,8 +2168,12 @@
       <c r="Q22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
@@ -2103,7 +2187,7 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3">
-        <f>SUM(H23:Q23)-D23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="3">
@@ -2136,8 +2220,12 @@
       <c r="Q23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
@@ -2151,7 +2239,7 @@
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3">
-        <f>SUM(H24:Q24)-D24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="3">
@@ -2184,8 +2272,12 @@
       <c r="Q24" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -2203,7 +2295,7 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3">
-        <f>SUM(H25:Q25)-D25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="3">
@@ -2236,8 +2328,12 @@
       <c r="Q25" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
@@ -2255,7 +2351,7 @@
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3">
-        <f>SUM(H26:Q26)-D26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26" s="3">
@@ -2288,8 +2384,12 @@
       <c r="Q26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>31</v>
       </c>
@@ -2307,7 +2407,7 @@
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3">
-        <f>SUM(H27:Q27)-D27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" s="3">
@@ -2340,8 +2440,12 @@
       <c r="Q27" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
@@ -2359,7 +2463,7 @@
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3">
-        <f>SUM(H28:Q28)-D28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" s="3">
@@ -2392,8 +2496,12 @@
       <c r="Q28" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>33</v>
       </c>
@@ -2411,7 +2519,7 @@
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3">
-        <f>SUM(H29:Q29)-D29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29" s="3">
@@ -2444,8 +2552,12 @@
       <c r="Q29" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
@@ -2463,7 +2575,7 @@
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3">
-        <f>SUM(H30:Q30)-D30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30" s="3">
@@ -2496,8 +2608,12 @@
       <c r="Q30" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>35</v>
       </c>
@@ -2515,7 +2631,7 @@
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3">
-        <f>SUM(H31:Q31)-D31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31" s="3">
@@ -2548,8 +2664,12 @@
       <c r="Q31" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>36</v>
       </c>
@@ -2567,7 +2687,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3">
-        <f>SUM(H32:Q32)-D32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" s="3">
@@ -2600,8 +2720,12 @@
       <c r="Q32" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>37</v>
       </c>
@@ -2619,7 +2743,7 @@
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3">
-        <f>SUM(H33:Q33)-D33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H33" s="3">
@@ -2652,8 +2776,12 @@
       <c r="Q33" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>38</v>
       </c>
@@ -2671,7 +2799,7 @@
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3">
-        <f>SUM(H34:Q34)-D34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H34" s="3">
@@ -2704,8 +2832,12 @@
       <c r="Q34" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>39</v>
       </c>
@@ -2723,7 +2855,7 @@
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3">
-        <f>SUM(H35:Q35)-D35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H35" s="3">
@@ -2756,8 +2888,12 @@
       <c r="Q35" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
@@ -2775,7 +2911,7 @@
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3">
-        <f>SUM(H36:Q36)-D36</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H36" s="3">
@@ -2808,8 +2944,12 @@
       <c r="Q36" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>41</v>
       </c>
@@ -2827,7 +2967,7 @@
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3">
-        <f>SUM(H37:Q37)-D37</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H37" s="3">
@@ -2860,8 +3000,12 @@
       <c r="Q37" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>42</v>
       </c>
@@ -2879,7 +3023,7 @@
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3">
-        <f t="shared" ref="G38:G58" si="0">SUM(H38:Q38)-D38</f>
+        <f t="shared" ref="G38:G58" si="2">SUM(H38:Q38)-D38</f>
         <v>0</v>
       </c>
       <c r="H38" s="3">
@@ -2912,8 +3056,12 @@
       <c r="Q38" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>43</v>
       </c>
@@ -2931,7 +3079,7 @@
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H39" s="3">
@@ -2964,8 +3112,12 @@
       <c r="Q39" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>44</v>
       </c>
@@ -2983,7 +3135,7 @@
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H40" s="3">
@@ -3016,8 +3168,12 @@
       <c r="Q40" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>45</v>
       </c>
@@ -3035,7 +3191,7 @@
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H41" s="3">
@@ -3068,8 +3224,12 @@
       <c r="Q41" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>46</v>
       </c>
@@ -3087,7 +3247,7 @@
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H42" s="3">
@@ -3120,8 +3280,12 @@
       <c r="Q42" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>47</v>
       </c>
@@ -3139,7 +3303,7 @@
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H43" s="3">
@@ -3172,8 +3336,12 @@
       <c r="Q43" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>48</v>
       </c>
@@ -3191,7 +3359,7 @@
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H44" s="3">
@@ -3224,8 +3392,12 @@
       <c r="Q44" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>49</v>
       </c>
@@ -3243,7 +3415,7 @@
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H45" s="3">
@@ -3276,8 +3448,12 @@
       <c r="Q45" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>50</v>
       </c>
@@ -3295,7 +3471,7 @@
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H46" s="3">
@@ -3328,8 +3504,12 @@
       <c r="Q46" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
@@ -3347,7 +3527,7 @@
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H47" s="3">
@@ -3380,8 +3560,12 @@
       <c r="Q47" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>52</v>
       </c>
@@ -3399,7 +3583,7 @@
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H48" s="3">
@@ -3432,8 +3616,12 @@
       <c r="Q48" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>53</v>
       </c>
@@ -3451,7 +3639,7 @@
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H49" s="3">
@@ -3484,8 +3672,12 @@
       <c r="Q49" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>54</v>
       </c>
@@ -3503,7 +3695,7 @@
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H50" s="3">
@@ -3536,8 +3728,12 @@
       <c r="Q50" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
@@ -3555,7 +3751,7 @@
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H51" s="3">
@@ -3588,8 +3784,12 @@
       <c r="Q51" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>56</v>
       </c>
@@ -3607,7 +3807,7 @@
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H52" s="3">
@@ -3640,8 +3840,12 @@
       <c r="Q52" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>57</v>
       </c>
@@ -3655,7 +3859,7 @@
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H53" s="3">
@@ -3688,8 +3892,12 @@
       <c r="Q53" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>58</v>
       </c>
@@ -3703,7 +3911,7 @@
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H54" s="3">
@@ -3736,8 +3944,12 @@
       <c r="Q54" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>59</v>
       </c>
@@ -3751,7 +3963,7 @@
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H55" s="3">
@@ -3784,8 +3996,12 @@
       <c r="Q55" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>60</v>
       </c>
@@ -3799,7 +4015,7 @@
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H56" s="3">
@@ -3832,8 +4048,12 @@
       <c r="Q56" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>61</v>
       </c>
@@ -3847,7 +4067,7 @@
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H57" s="3">
@@ -3880,8 +4100,12 @@
       <c r="Q57" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>62</v>
       </c>
@@ -3895,7 +4119,7 @@
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H58" s="3">
@@ -3928,8 +4152,12 @@
       <c r="Q58" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>63</v>
       </c>
@@ -3980,8 +4208,12 @@
       <c r="Q59" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>64</v>
       </c>
@@ -4032,8 +4264,12 @@
       <c r="Q60" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>65</v>
       </c>
@@ -4084,8 +4320,12 @@
       <c r="Q61" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>66</v>
       </c>
@@ -4136,8 +4376,12 @@
       <c r="Q62" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>67</v>
       </c>
@@ -4188,8 +4432,12 @@
       <c r="Q63" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>68</v>
       </c>
@@ -4207,7 +4455,7 @@
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3">
-        <f t="shared" ref="G64:G81" si="1">SUM(H64:Q64)-D64</f>
+        <f t="shared" ref="G64:G81" si="3">SUM(H64:Q64)-D64</f>
         <v>0</v>
       </c>
       <c r="H64" s="3">
@@ -4240,8 +4488,12 @@
       <c r="Q64" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>69</v>
       </c>
@@ -4259,41 +4511,45 @@
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
+        <v>1</v>
+      </c>
+      <c r="I65" s="3">
+        <v>1</v>
+      </c>
+      <c r="J65" s="3">
+        <v>1</v>
+      </c>
+      <c r="K65" s="3">
+        <v>1</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>0</v>
+      </c>
+      <c r="R65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H65" s="3">
-        <v>1</v>
-      </c>
-      <c r="I65" s="3">
-        <v>1</v>
-      </c>
-      <c r="J65" s="3">
-        <v>1</v>
-      </c>
-      <c r="K65" s="3">
-        <v>1</v>
-      </c>
-      <c r="L65" s="3">
-        <v>0</v>
-      </c>
-      <c r="M65" s="3">
-        <v>0</v>
-      </c>
-      <c r="N65" s="3">
-        <v>0</v>
-      </c>
-      <c r="O65" s="3">
-        <v>0</v>
-      </c>
-      <c r="P65" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>70</v>
       </c>
@@ -4311,41 +4567,45 @@
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>0</v>
+      </c>
+      <c r="R66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H66" s="3">
-        <v>1</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1</v>
-      </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
-      <c r="P66" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>71</v>
       </c>
@@ -4363,7 +4623,7 @@
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H67" s="3">
@@ -4396,8 +4656,12 @@
       <c r="Q67" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R67">
+        <f t="shared" ref="R67:R130" si="4">P67+Q67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>72</v>
       </c>
@@ -4415,7 +4679,7 @@
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H68" s="3">
@@ -4448,8 +4712,12 @@
       <c r="Q68" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>73</v>
       </c>
@@ -4467,7 +4735,7 @@
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H69" s="3">
@@ -4500,8 +4768,12 @@
       <c r="Q69" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>74</v>
       </c>
@@ -4519,7 +4791,7 @@
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H70" s="3">
@@ -4552,8 +4824,12 @@
       <c r="Q70" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>75</v>
       </c>
@@ -4571,7 +4847,7 @@
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H71" s="3">
@@ -4604,8 +4880,12 @@
       <c r="Q71" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>76</v>
       </c>
@@ -4623,7 +4903,7 @@
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H72" s="3">
@@ -4656,8 +4936,12 @@
       <c r="Q72" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>77</v>
       </c>
@@ -4675,7 +4959,7 @@
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H73" s="3">
@@ -4708,8 +4992,12 @@
       <c r="Q73" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R73">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>78</v>
       </c>
@@ -4727,7 +5015,7 @@
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H74" s="3">
@@ -4760,8 +5048,12 @@
       <c r="Q74" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>79</v>
       </c>
@@ -4779,7 +5071,7 @@
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H75" s="3">
@@ -4812,8 +5104,12 @@
       <c r="Q75" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>80</v>
       </c>
@@ -4831,7 +5127,7 @@
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H76" s="3">
@@ -4864,8 +5160,12 @@
       <c r="Q76" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>81</v>
       </c>
@@ -4883,7 +5183,7 @@
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H77" s="3">
@@ -4916,8 +5216,12 @@
       <c r="Q77" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>82</v>
       </c>
@@ -4935,7 +5239,7 @@
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H78" s="3">
@@ -4968,8 +5272,12 @@
       <c r="Q78" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>83</v>
       </c>
@@ -4987,7 +5295,7 @@
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H79" s="3">
@@ -5020,8 +5328,12 @@
       <c r="Q79" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R79">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>84</v>
       </c>
@@ -5039,7 +5351,7 @@
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H80" s="3">
@@ -5072,8 +5384,12 @@
       <c r="Q80" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>85</v>
       </c>
@@ -5091,7 +5407,7 @@
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H81" s="3">
@@ -5124,8 +5440,12 @@
       <c r="Q81" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>86</v>
       </c>
@@ -5176,8 +5496,12 @@
       <c r="Q82" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>87</v>
       </c>
@@ -5195,7 +5519,7 @@
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3">
-        <f t="shared" ref="G83:G102" si="2">SUM(H83:Q83)-D83</f>
+        <f t="shared" ref="G83:G102" si="5">SUM(H83:Q83)-D83</f>
         <v>0</v>
       </c>
       <c r="H83" s="3">
@@ -5228,8 +5552,12 @@
       <c r="Q83" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>88</v>
       </c>
@@ -5247,7 +5575,7 @@
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H84" s="3">
@@ -5280,8 +5608,12 @@
       <c r="Q84" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>89</v>
       </c>
@@ -5299,7 +5631,7 @@
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H85" s="3">
@@ -5332,8 +5664,12 @@
       <c r="Q85" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>90</v>
       </c>
@@ -5351,7 +5687,7 @@
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H86" s="3">
@@ -5384,8 +5720,12 @@
       <c r="Q86" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>91</v>
       </c>
@@ -5403,7 +5743,7 @@
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H87" s="3">
@@ -5436,8 +5776,12 @@
       <c r="Q87" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>92</v>
       </c>
@@ -5455,7 +5799,7 @@
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H88" s="3">
@@ -5488,8 +5832,12 @@
       <c r="Q88" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R88">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>93</v>
       </c>
@@ -5507,7 +5855,7 @@
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H89" s="3">
@@ -5540,8 +5888,12 @@
       <c r="Q89" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R89">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>94</v>
       </c>
@@ -5559,7 +5911,7 @@
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H90" s="3">
@@ -5592,8 +5944,12 @@
       <c r="Q90" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>95</v>
       </c>
@@ -5611,7 +5967,7 @@
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H91" s="3">
@@ -5644,8 +6000,12 @@
       <c r="Q91" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>96</v>
       </c>
@@ -5663,7 +6023,7 @@
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H92" s="3">
@@ -5696,8 +6056,12 @@
       <c r="Q92" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>97</v>
       </c>
@@ -5715,7 +6079,7 @@
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H93" s="3">
@@ -5748,8 +6112,12 @@
       <c r="Q93" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>98</v>
       </c>
@@ -5767,7 +6135,7 @@
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H94" s="3">
@@ -5800,8 +6168,12 @@
       <c r="Q94" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>99</v>
       </c>
@@ -5819,7 +6191,7 @@
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H95" s="3">
@@ -5852,8 +6224,12 @@
       <c r="Q95" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>100</v>
       </c>
@@ -5871,7 +6247,7 @@
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H96" s="3">
@@ -5904,8 +6280,12 @@
       <c r="Q96" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R96">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>101</v>
       </c>
@@ -5923,7 +6303,7 @@
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H97" s="3">
@@ -5956,8 +6336,12 @@
       <c r="Q97" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>102</v>
       </c>
@@ -5975,7 +6359,7 @@
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H98" s="3">
@@ -6008,8 +6392,12 @@
       <c r="Q98" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>103</v>
       </c>
@@ -6027,7 +6415,7 @@
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H99" s="3">
@@ -6060,8 +6448,12 @@
       <c r="Q99" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>104</v>
       </c>
@@ -6079,7 +6471,7 @@
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H100" s="3">
@@ -6112,8 +6504,12 @@
       <c r="Q100" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R100">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>105</v>
       </c>
@@ -6131,7 +6527,7 @@
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H101" s="3">
@@ -6164,8 +6560,12 @@
       <c r="Q101" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>106</v>
       </c>
@@ -6183,7 +6583,7 @@
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H102" s="3">
@@ -6216,8 +6616,12 @@
       <c r="Q102" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R102">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>107</v>
       </c>
@@ -6268,8 +6672,12 @@
       <c r="Q103" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R103">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>108</v>
       </c>
@@ -6287,7 +6695,7 @@
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3">
-        <f t="shared" ref="G104:G133" si="3">SUM(H104:Q104)-D104</f>
+        <f t="shared" ref="G104:G133" si="6">SUM(H104:Q104)-D104</f>
         <v>0</v>
       </c>
       <c r="H104" s="3">
@@ -6320,8 +6728,12 @@
       <c r="Q104" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>109</v>
       </c>
@@ -6339,7 +6751,7 @@
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H105" s="3">
@@ -6372,8 +6784,12 @@
       <c r="Q105" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R105">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>110</v>
       </c>
@@ -6391,7 +6807,7 @@
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H106" s="3">
@@ -6424,8 +6840,12 @@
       <c r="Q106" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>111</v>
       </c>
@@ -6443,7 +6863,7 @@
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H107" s="3">
@@ -6476,8 +6896,12 @@
       <c r="Q107" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>112</v>
       </c>
@@ -6495,7 +6919,7 @@
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H108" s="3">
@@ -6528,8 +6952,12 @@
       <c r="Q108" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>113</v>
       </c>
@@ -6547,7 +6975,7 @@
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H109" s="3">
@@ -6580,8 +7008,12 @@
       <c r="Q109" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>114</v>
       </c>
@@ -6599,7 +7031,7 @@
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H110" s="3">
@@ -6632,8 +7064,12 @@
       <c r="Q110" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R110">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>115</v>
       </c>
@@ -6651,7 +7087,7 @@
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H111" s="3">
@@ -6684,8 +7120,12 @@
       <c r="Q111" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R111">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>116</v>
       </c>
@@ -6703,7 +7143,7 @@
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H112" s="3">
@@ -6736,8 +7176,12 @@
       <c r="Q112" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R112">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>117</v>
       </c>
@@ -6755,7 +7199,7 @@
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H113" s="3">
@@ -6788,8 +7232,12 @@
       <c r="Q113" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>118</v>
       </c>
@@ -6807,7 +7255,7 @@
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H114" s="3">
@@ -6840,8 +7288,12 @@
       <c r="Q114" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R114">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>119</v>
       </c>
@@ -6859,7 +7311,7 @@
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H115" s="3">
@@ -6892,8 +7344,12 @@
       <c r="Q115" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R115">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>120</v>
       </c>
@@ -6911,7 +7367,7 @@
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H116" s="3">
@@ -6944,8 +7400,12 @@
       <c r="Q116" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R116">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>121</v>
       </c>
@@ -6963,7 +7423,7 @@
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H117" s="3">
@@ -6996,8 +7456,12 @@
       <c r="Q117" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>122</v>
       </c>
@@ -7011,7 +7475,7 @@
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H118" s="3">
@@ -7044,8 +7508,12 @@
       <c r="Q118" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R118">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>123</v>
       </c>
@@ -7059,7 +7527,7 @@
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H119" s="3">
@@ -7092,8 +7560,12 @@
       <c r="Q119" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>124</v>
       </c>
@@ -7107,7 +7579,7 @@
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H120" s="3">
@@ -7140,8 +7612,12 @@
       <c r="Q120" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R120">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>125</v>
       </c>
@@ -7155,7 +7631,7 @@
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H121" s="3">
@@ -7188,8 +7664,12 @@
       <c r="Q121" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R121">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>126</v>
       </c>
@@ -7203,7 +7683,7 @@
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H122" s="3">
@@ -7236,8 +7716,12 @@
       <c r="Q122" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R122">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>127</v>
       </c>
@@ -7288,8 +7772,12 @@
       <c r="Q123" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R123">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>129</v>
       </c>
@@ -7340,8 +7828,12 @@
       <c r="Q124" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R124">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>130</v>
       </c>
@@ -7392,8 +7884,12 @@
       <c r="Q125" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R125">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>131</v>
       </c>
@@ -7444,8 +7940,12 @@
       <c r="Q126" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R126">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>132</v>
       </c>
@@ -7496,8 +7996,12 @@
       <c r="Q127" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R127">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>133</v>
       </c>
@@ -7515,7 +8019,7 @@
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H128" s="3">
@@ -7548,8 +8052,12 @@
       <c r="Q128" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R128">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>134</v>
       </c>
@@ -7567,7 +8075,7 @@
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H129" s="3">
@@ -7600,8 +8108,12 @@
       <c r="Q129" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R129">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>135</v>
       </c>
@@ -7619,7 +8131,7 @@
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H130" s="3">
@@ -7652,8 +8164,12 @@
       <c r="Q130" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R130">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>136</v>
       </c>
@@ -7671,7 +8187,7 @@
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H131" s="3">
@@ -7704,8 +8220,12 @@
       <c r="Q131" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R131">
+        <f t="shared" ref="R131:R166" si="7">P131+Q131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>137</v>
       </c>
@@ -7723,7 +8243,7 @@
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H132" s="3">
@@ -7756,8 +8276,12 @@
       <c r="Q132" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R132">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>138</v>
       </c>
@@ -7775,7 +8299,7 @@
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H133" s="3">
@@ -7808,8 +8332,12 @@
       <c r="Q133" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R133">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>139</v>
       </c>
@@ -7860,8 +8388,12 @@
       <c r="Q134" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R134">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>140</v>
       </c>
@@ -7879,7 +8411,7 @@
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3">
-        <f t="shared" ref="G135:G162" si="4">SUM(H135:Q135)-D135</f>
+        <f t="shared" ref="G135:G162" si="8">SUM(H135:Q135)-D135</f>
         <v>0</v>
       </c>
       <c r="H135" s="3">
@@ -7912,8 +8444,12 @@
       <c r="Q135" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R135">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>141</v>
       </c>
@@ -7931,7 +8467,7 @@
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H136" s="3">
@@ -7964,8 +8500,12 @@
       <c r="Q136" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R136">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>142</v>
       </c>
@@ -7983,7 +8523,7 @@
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H137" s="3">
@@ -8016,8 +8556,12 @@
       <c r="Q137" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R137">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>143</v>
       </c>
@@ -8035,7 +8579,7 @@
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H138" s="3">
@@ -8068,8 +8612,12 @@
       <c r="Q138" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R138">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>144</v>
       </c>
@@ -8087,7 +8635,7 @@
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H139" s="3">
@@ -8120,8 +8668,12 @@
       <c r="Q139" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R139">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>145</v>
       </c>
@@ -8139,7 +8691,7 @@
       </c>
       <c r="F140" s="3"/>
       <c r="G140" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H140" s="3">
@@ -8172,8 +8724,12 @@
       <c r="Q140" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R140">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>146</v>
       </c>
@@ -8191,7 +8747,7 @@
       </c>
       <c r="F141" s="3"/>
       <c r="G141" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H141" s="3">
@@ -8224,8 +8780,12 @@
       <c r="Q141" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R141">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>147</v>
       </c>
@@ -8243,7 +8803,7 @@
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H142" s="3">
@@ -8276,8 +8836,12 @@
       <c r="Q142" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R142">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>148</v>
       </c>
@@ -8295,7 +8859,7 @@
       </c>
       <c r="F143" s="3"/>
       <c r="G143" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H143" s="3">
@@ -8328,8 +8892,12 @@
       <c r="Q143" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R143">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>149</v>
       </c>
@@ -8347,7 +8915,7 @@
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H144" s="3">
@@ -8380,8 +8948,12 @@
       <c r="Q144" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R144">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>150</v>
       </c>
@@ -8399,7 +8971,7 @@
       </c>
       <c r="F145" s="3"/>
       <c r="G145" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H145" s="3">
@@ -8432,8 +9004,12 @@
       <c r="Q145" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R145">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>152</v>
       </c>
@@ -8451,7 +9027,7 @@
       </c>
       <c r="F146" s="3"/>
       <c r="G146" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H146" s="3">
@@ -8484,8 +9060,12 @@
       <c r="Q146" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R146">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>153</v>
       </c>
@@ -8503,7 +9083,7 @@
       </c>
       <c r="F147" s="3"/>
       <c r="G147" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H147" s="3">
@@ -8536,8 +9116,12 @@
       <c r="Q147" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R147">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>154</v>
       </c>
@@ -8555,7 +9139,7 @@
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H148" s="3">
@@ -8588,8 +9172,12 @@
       <c r="Q148" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R148">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>155</v>
       </c>
@@ -8607,7 +9195,7 @@
       </c>
       <c r="F149" s="3"/>
       <c r="G149" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H149" s="3">
@@ -8640,8 +9228,12 @@
       <c r="Q149" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R149">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>156</v>
       </c>
@@ -8659,7 +9251,7 @@
       </c>
       <c r="F150" s="3"/>
       <c r="G150" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H150" s="3">
@@ -8692,8 +9284,12 @@
       <c r="Q150" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R150">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>157</v>
       </c>
@@ -8711,7 +9307,7 @@
       </c>
       <c r="F151" s="3"/>
       <c r="G151" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H151" s="3">
@@ -8744,8 +9340,12 @@
       <c r="Q151" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R151">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>158</v>
       </c>
@@ -8763,7 +9363,7 @@
       </c>
       <c r="F152" s="3"/>
       <c r="G152" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H152" s="3">
@@ -8796,8 +9396,12 @@
       <c r="Q152" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R152">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>159</v>
       </c>
@@ -8815,7 +9419,7 @@
       </c>
       <c r="F153" s="3"/>
       <c r="G153" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H153" s="3">
@@ -8848,8 +9452,12 @@
       <c r="Q153" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R153">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>160</v>
       </c>
@@ -8867,7 +9475,7 @@
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H154" s="3">
@@ -8900,8 +9508,12 @@
       <c r="Q154" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R154">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>161</v>
       </c>
@@ -8919,7 +9531,7 @@
       </c>
       <c r="F155" s="3"/>
       <c r="G155" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H155" s="3">
@@ -8952,8 +9564,12 @@
       <c r="Q155" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>162</v>
       </c>
@@ -8971,7 +9587,7 @@
       </c>
       <c r="F156" s="3"/>
       <c r="G156" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H156" s="3">
@@ -9004,8 +9620,12 @@
       <c r="Q156" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R156">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>163</v>
       </c>
@@ -9023,7 +9643,7 @@
       </c>
       <c r="F157" s="3"/>
       <c r="G157" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H157" s="3">
@@ -9056,8 +9676,12 @@
       <c r="Q157" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R157">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>164</v>
       </c>
@@ -9075,7 +9699,7 @@
       </c>
       <c r="F158" s="3"/>
       <c r="G158" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H158" s="3">
@@ -9108,8 +9732,12 @@
       <c r="Q158" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R158">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>165</v>
       </c>
@@ -9127,7 +9755,7 @@
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H159" s="3">
@@ -9160,8 +9788,12 @@
       <c r="Q159" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R159">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>166</v>
       </c>
@@ -9179,7 +9811,7 @@
       </c>
       <c r="F160" s="3"/>
       <c r="G160" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H160" s="3">
@@ -9212,8 +9844,12 @@
       <c r="Q160" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R160">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>167</v>
       </c>
@@ -9227,7 +9863,7 @@
       </c>
       <c r="F161" s="3"/>
       <c r="G161" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H161" s="3">
@@ -9260,8 +9896,12 @@
       <c r="Q161" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R161">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>169</v>
       </c>
@@ -9275,7 +9915,7 @@
       </c>
       <c r="F162" s="3"/>
       <c r="G162" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H162" s="3">
@@ -9308,8 +9948,12 @@
       <c r="Q162" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R162">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>170</v>
       </c>
@@ -9327,7 +9971,7 @@
       </c>
       <c r="F163" s="3"/>
       <c r="G163" s="3">
-        <f t="shared" ref="G163" si="5">SUM(H163:Q163)-D163</f>
+        <f t="shared" ref="G163" si="9">SUM(H163:Q163)-D163</f>
         <v>0</v>
       </c>
       <c r="H163" s="3">
@@ -9360,8 +10004,12 @@
       <c r="Q163" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R163">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>171</v>
       </c>
@@ -9412,8 +10060,12 @@
       <c r="Q164" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R164">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>151</v>
       </c>
@@ -9431,7 +10083,7 @@
       </c>
       <c r="F165" s="3"/>
       <c r="G165" s="3">
-        <f t="shared" ref="G165" si="6">SUM(H165:Q165)-D165</f>
+        <f t="shared" ref="G165" si="10">SUM(H165:Q165)-D165</f>
         <v>0</v>
       </c>
       <c r="H165" s="3">
@@ -9464,8 +10116,12 @@
       <c r="Q165" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R165">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -9474,44 +10130,48 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3">
-        <f>SUM(H3:H165)</f>
-        <v>202</v>
+        <f>SUM(H2:H165)</f>
+        <v>211</v>
       </c>
       <c r="I166" s="3">
-        <f>SUM(I3:I165)</f>
-        <v>202</v>
+        <f t="shared" ref="I166:Q166" si="11">SUM(I2:I165)</f>
+        <v>211</v>
       </c>
       <c r="J166" s="3">
-        <f>SUM(J3:J165)</f>
-        <v>195</v>
+        <f t="shared" si="11"/>
+        <v>204</v>
       </c>
       <c r="K166" s="3">
-        <f>SUM(K3:K165)</f>
-        <v>192</v>
+        <f t="shared" si="11"/>
+        <v>201</v>
       </c>
       <c r="L166" s="3">
-        <f>SUM(L3:L165)</f>
-        <v>96</v>
+        <f t="shared" si="11"/>
+        <v>105</v>
       </c>
       <c r="M166" s="3">
-        <f>SUM(M3:M165)</f>
-        <v>96</v>
+        <f t="shared" si="11"/>
+        <v>105</v>
       </c>
       <c r="N166" s="3">
-        <f>SUM(N3:N165)</f>
-        <v>78</v>
+        <f t="shared" si="11"/>
+        <v>87</v>
       </c>
       <c r="O166" s="3">
-        <f>SUM(O3:O165)</f>
-        <v>78</v>
-      </c>
-      <c r="P166" s="5">
-        <f>SUM(P3:P165)</f>
-        <v>42</v>
-      </c>
-      <c r="Q166" s="5">
-        <f>SUM(Q3:Q165)</f>
-        <v>42</v>
+        <f t="shared" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="P166" s="3">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="Q166" s="3">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="R166">
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
